--- a/DeckMaker/list.xlsx
+++ b/DeckMaker/list.xlsx
@@ -6,11 +6,11 @@
     <sheet state="visible" name="LIVE Unit Values" sheetId="1" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName hidden="1" localSheetId="0" name="Z_9AD46F16_CC94_4F28_BEC4_3FF3424FB720_.wvu.FilterData">'LIVE Unit Values'!$A$1:$J$73</definedName>
+    <definedName hidden="1" localSheetId="0" name="Z_E86715FD_F20D_4A18_8BC3_272269A49CDD_.wvu.FilterData">'LIVE Unit Values'!$A$1:$J$73</definedName>
   </definedNames>
   <calcPr/>
   <customWorkbookViews>
-    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{9AD46F16-CC94-4F28-BEC4-3FF3424FB720}" name="Filter 1"/>
+    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{E86715FD-F20D-4A18-8BC3-272269A49CDD}" name="Filter 1"/>
   </customWorkbookViews>
 </workbook>
 </file>
@@ -3604,13 +3604,13 @@
         <v>22</v>
       </c>
       <c r="E63" s="7">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="F63" s="7">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="G63" s="7">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="H63" s="6">
         <v>40.0</v>
@@ -4071,7 +4071,7 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{9AD46F16-CC94-4F28-BEC4-3FF3424FB720}" filter="1" showAutoFilter="1">
+    <customSheetView guid="{E86715FD-F20D-4A18-8BC3-272269A49CDD}" filter="1" showAutoFilter="1">
       <autoFilter ref="$A$1:$J$73">
         <sortState ref="A1:J73">
           <sortCondition ref="C1:C73"/>
